--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd5b5e0c07c87625/ACADEMICO/proyectos/armenia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="11_AD4D2F04E46CFB4ACB3E2030D592C3AC693EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFEEEF2D-8863-407C-9A6D-88AD63D6733B}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_AD4D2F04E46CFB4ACB3E2030D592C3AC693EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07AF97C-2E05-46F8-94CD-B67DC56AE944}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="table 2" sheetId="2" r:id="rId2"/>
-    <sheet name="table 3" sheetId="3" r:id="rId3"/>
+    <sheet name="tables" sheetId="1" r:id="rId1"/>
+    <sheet name="tables 2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>casual</t>
   </si>
@@ -88,24 +87,12 @@
     <t>Therophyte</t>
   </si>
   <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Non-Disturbed</t>
-  </si>
-  <si>
-    <t>Self-Settlement</t>
-  </si>
-  <si>
     <t>Life form</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>Disturbance</t>
-  </si>
-  <si>
     <t>East Asia</t>
   </si>
   <si>
@@ -151,21 +138,12 @@
     <t>Release for nature for use</t>
   </si>
   <si>
-    <t>Intentional</t>
-  </si>
-  <si>
-    <t>Unintentional</t>
-  </si>
-  <si>
     <t>uncertain</t>
   </si>
   <si>
     <t>Pathway</t>
   </si>
   <si>
-    <t>Intentionality</t>
-  </si>
-  <si>
     <t>WRA recommendation</t>
   </si>
   <si>
@@ -176,6 +154,36 @@
   </si>
   <si>
     <t>reject</t>
+  </si>
+  <si>
+    <t>herb</t>
+  </si>
+  <si>
+    <t>parasite</t>
+  </si>
+  <si>
+    <t>shrub</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>vine</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>biennial</t>
+  </si>
+  <si>
+    <t>perennial</t>
+  </si>
+  <si>
+    <t>Life cycle</t>
+  </si>
+  <si>
+    <t>Growth form</t>
   </si>
 </sst>
 </file>
@@ -279,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -292,7 +300,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +308,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -310,53 +338,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,22 +659,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,9 +684,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -685,8 +701,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -700,8 +716,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -715,8 +731,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -730,8 +746,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -745,8 +761,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -760,586 +776,600 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="27">
+        <v>14</v>
+      </c>
+      <c r="D9" s="27">
+        <v>16</v>
+      </c>
+      <c r="E9" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="27">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="27">
+        <v>23</v>
+      </c>
+      <c r="D11" s="27">
+        <v>6</v>
+      </c>
+      <c r="E11" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="27">
+        <v>17</v>
+      </c>
+      <c r="D20" s="27">
+        <v>4</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="27">
+        <v>3</v>
+      </c>
+      <c r="D21" s="27">
+        <v>3</v>
+      </c>
+      <c r="E21" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="27">
+        <v>1</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="27">
+        <v>2</v>
+      </c>
+      <c r="D24" s="27">
+        <v>4</v>
+      </c>
+      <c r="E24" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="27">
+        <v>11</v>
+      </c>
+      <c r="D25" s="27">
+        <v>4</v>
+      </c>
+      <c r="E25" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="27">
+        <v>23</v>
+      </c>
+      <c r="D26" s="27">
+        <v>6</v>
+      </c>
+      <c r="E26" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5">
+        <v>52</v>
+      </c>
+      <c r="D32" s="5">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1" t="s">
+      <c r="D33" s="5">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5">
         <v>4</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1" t="s">
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8">
-        <v>15</v>
-      </c>
-      <c r="D19" s="8">
-        <v>15</v>
-      </c>
-      <c r="E19" s="8">
-        <v>16</v>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A32:A43"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB57D236-8AB6-4E8D-BD68-9E1CCE310FCA}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E38DCB-937E-496A-ABF1-E52574F24491}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5">
-        <v>52</v>
-      </c>
-      <c r="D5" s="5">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E38DCB-937E-496A-ABF1-E52574F24491}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.42578125" style="14"/>
-    <col min="3" max="5" width="13" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="14"/>
+    <col min="3" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>45</v>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="A3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
         <v>13</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="4">
         <v>22</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="31">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="A5" s="24"/>
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
